--- a/medicine/Mort/Cimetière_de_la_Chacarita/Cimetière_de_la_Chacarita.xlsx
+++ b/medicine/Mort/Cimetière_de_la_Chacarita/Cimetière_de_la_Chacarita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Chacarita</t>
+          <t>Cimetière_de_la_Chacarita</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de la Chacarita (en espagnol : Cementerio de la Chacarita) est le principal cimetière de Buenos Aires en Argentine.
 Fondé en 1887 à Chacarita, ce cimetière public est généralement vu comme le cimetière national de par son emplacement dans la capitale, sa taille et le nombre de personnalités qui y sont enterrées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Chacarita</t>
+          <t>Cimetière_de_la_Chacarita</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>May Avril (1928-2002), actrice franco-argentine.
 Carlos Gardel (1890-1935), chanteur-compositeur, créateur du Tango chanté (sa tombe est à l'angle de la Calle 6 et la Calle 33).
